--- a/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1_捷豹组.xlsx
+++ b/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1_捷豹组.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>No</t>
   </si>
@@ -106,10 +106,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>极光组</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>不紧急</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -148,12 +144,126 @@
     <t>all</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>紧急</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>退房结算页面，需支付房租计算错误</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>fix bug</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnerpc</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷豹组</t>
+    <rPh sb="0" eb="1">
+      <t>jie'bao'z</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾宝碗、蔡银军</t>
+    <rPh sb="0" eb="1">
+      <t>g'b'w</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cai'y'j</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>李敖</t>
+    <rPh sb="0" eb="1">
+      <t>li'ao</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起续租账单重复提交</t>
+    <rPh sb="0" eb="1">
+      <t>fa'qi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xu'zu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhang'd</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>chong'fu</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ti'j</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>fix bug</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>partnerpc</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>王辉</t>
+    <rPh sb="0" eb="1">
+      <t>wang'h</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷豹组</t>
+    <rPh sb="0" eb="1">
+      <t>jie'bao'zu</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超</t>
+    <rPh sb="0" eb="1">
+      <t>shi'ch</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>续租优化租客账单列表展示</t>
+    <rPh sb="0" eb="1">
+      <t>xu'zu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you'h</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zu'k</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhang'd</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lie'b</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhan'shi</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>partner、partnerpc</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -213,6 +323,20 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -301,7 +425,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -318,6 +442,54 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -416,7 +588,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="24">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="6"/>
@@ -424,7 +596,23 @@
     <cellStyle name="常规 4" xfId="7"/>
     <cellStyle name="常规 6" xfId="1"/>
     <cellStyle name="常规 9" xfId="3"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -862,7 +1050,7 @@
   <dimension ref="A1:V187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G5" sqref="G5:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -964,16 +1152,16 @@
         <v>23</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>26</v>
-      </c>
       <c r="F2" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>20</v>
@@ -989,13 +1177,13 @@
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="21" t="s">
         <v>28</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>29</v>
       </c>
       <c r="O2" s="21"/>
       <c r="P2" s="13"/>
@@ -1014,19 +1202,39 @@
         <v>23</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="13">
+        <v>42695</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="13">
+        <v>42695</v>
+      </c>
       <c r="K3" s="11"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="21"/>
+      <c r="L3" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="O3" s="21"/>
       <c r="P3" s="13"/>
       <c r="Q3" s="21"/>
@@ -1040,19 +1248,43 @@
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="21"/>
+      <c r="B4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="13">
+        <v>42695</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="13">
+        <v>42695</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>42</v>
+      </c>
       <c r="O4" s="21"/>
       <c r="P4" s="13"/>
       <c r="Q4" s="21"/>
@@ -1066,19 +1298,43 @@
       <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
+      <c r="B5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="13">
+        <v>42695</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="13">
+        <v>42695</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>42</v>
+      </c>
       <c r="O5" s="21"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="21"/>

--- a/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1_捷豹组.xlsx
+++ b/VersionRecords/Version 5.1.1/版本Bug和特性计划及评审表v5.1.1_捷豹组.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>No</t>
   </si>
@@ -258,6 +258,18 @@
     <t>partner、partnerpc</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -425,7 +437,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -492,6 +504,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -588,7 +612,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="24">
+  <cellStyles count="28">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 3" xfId="6"/>
@@ -604,6 +628,8 @@
     <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
@@ -613,6 +639,8 @@
     <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1049,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:N5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1235,9 +1263,15 @@
       <c r="N3" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="21"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="21"/>
+      <c r="O3" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="13">
+        <v>42695</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="R3" s="19"/>
       <c r="S3" s="19"/>
       <c r="T3" s="19"/>
@@ -1285,9 +1319,15 @@
       <c r="N4" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="21"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="21"/>
+      <c r="O4" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="13">
+        <v>42695</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>47</v>
+      </c>
       <c r="R4" s="23"/>
       <c r="S4" s="23"/>
       <c r="T4" s="23"/>
@@ -1335,9 +1375,15 @@
       <c r="N5" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="21"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="21"/>
+      <c r="O5" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="13">
+        <v>42695</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>46</v>
+      </c>
       <c r="R5" s="23"/>
       <c r="S5" s="23"/>
       <c r="T5" s="23"/>
